--- a/SolveurWordle_EvanPASTEAU/Results/Stats.xlsx
+++ b/SolveurWordle_EvanPASTEAU/Results/Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ecole\EPF\5A\2025-IA2-Projet\SolveurWordle_EvanPASTEAU\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CE5DD23-D7EF-48A4-8B32-BA251B43B71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8602C8CA-2F43-4FF1-9D2E-F2B60631C524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{71B9DD53-D17E-49D1-AAA1-5E46C5A2CD02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Algo</t>
   </si>
@@ -82,6 +82,9 @@
   <si>
     <t>Gemma3</t>
   </si>
+  <si>
+    <t>Moyenne Joueurs</t>
+  </si>
 </sst>
 </file>
 
@@ -117,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -157,15 +160,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -276,12 +270,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -290,10 +283,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1281,7 +1274,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gemini 3Pro</c:v>
+                  <c:v>Moyenne Joueurs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1332,25 +1325,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1370,7 +1363,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ChatGPT 5</c:v>
+                  <c:v>Gemini 3Pro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1427,19 +1420,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,7 +1452,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gemma3</c:v>
+                  <c:v>ChatGPT 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1519,16 +1512,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1536,6 +1529,95 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A9FB-491D-9488-D30399CFC527}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>An!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gemma3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>An!$A$15:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 mot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 mots</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 mots</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 mots</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 mots</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 mots</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Echec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>An!$G$15:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D55F-4E63-AD5D-5D02ED6F060F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3218,7 +3300,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3227,7 +3309,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3247,7 +3329,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
@@ -3267,393 +3349,408 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>49</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>1240</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>939</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>77</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <f>SUM(B2:B8)</f>
         <v>2315</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <f t="shared" ref="C9:F9" si="0">SUM(C2:C8)</f>
         <v>11</v>
       </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
+      <c r="D9" s="7">
+        <f>SUM(D2:D8)</f>
         <v>10</v>
       </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
+      <c r="E9" s="7">
+        <f>SUM(E2:E8)</f>
         <v>3</v>
       </c>
-      <c r="F9" s="10">
-        <f t="shared" si="0"/>
+      <c r="F9" s="8">
+        <f>SUM(F2:F8)</f>
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>0.04</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>150</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>300</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>100</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="16">
-        <f t="shared" ref="B15:F15" si="1">B2/B$9</f>
+      <c r="B15" s="14">
+        <f t="shared" ref="B15:C15" si="1">B2/B$9</f>
         <v>0</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D15" s="16">
-        <f t="shared" si="1"/>
+      <c r="D15" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="14">
+        <f>D2/D$9</f>
         <v>0</v>
       </c>
-      <c r="E15" s="16">
-        <f t="shared" si="1"/>
+      <c r="F15" s="14">
+        <f>E2/E$9</f>
         <v>0</v>
       </c>
-      <c r="F15" s="16">
-        <f t="shared" si="1"/>
+      <c r="G15" s="14">
+        <f>F2/F$9</f>
         <v>0</v>
       </c>
-      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="16">
-        <f t="shared" ref="B16:F16" si="2">B3/B$9</f>
+      <c r="B16" s="14">
+        <f t="shared" ref="B16:C16" si="2">B3/B$9</f>
         <v>2.1166306695464362E-2</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D16" s="16">
-        <f t="shared" si="2"/>
+      <c r="D16" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E16" s="14">
+        <f>D3/D$9</f>
         <v>0</v>
       </c>
-      <c r="E16" s="16">
-        <f t="shared" si="2"/>
+      <c r="F16" s="14">
+        <f>E3/E$9</f>
         <v>0</v>
       </c>
-      <c r="F16" s="16">
-        <f t="shared" si="2"/>
+      <c r="G16" s="14">
+        <f>F3/F$9</f>
         <v>0</v>
       </c>
-      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="16">
-        <f t="shared" ref="B17:F17" si="3">B4/B$9</f>
+      <c r="B17" s="14">
+        <f t="shared" ref="B17:C17" si="3">B4/B$9</f>
         <v>0.5356371490280778</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D17" s="16">
-        <f t="shared" si="3"/>
+      <c r="D17" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="E17" s="14">
+        <f>D4/D$9</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="16">
-        <f t="shared" si="3"/>
+      <c r="F17" s="14">
+        <f>E4/E$9</f>
         <v>0</v>
       </c>
-      <c r="F17" s="16">
-        <f t="shared" si="3"/>
+      <c r="G17" s="14">
+        <f>F4/F$9</f>
         <v>0</v>
       </c>
-      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="16">
-        <f t="shared" ref="B18:F18" si="4">B5/B$9</f>
+      <c r="B18" s="14">
+        <f t="shared" ref="B18:C18" si="4">B5/B$9</f>
         <v>0.40561555075593952</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="14">
         <f t="shared" si="4"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="D18" s="16">
-        <f t="shared" si="4"/>
+      <c r="D18" s="14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E18" s="14">
+        <f>D5/D$9</f>
         <v>0.2</v>
       </c>
-      <c r="E18" s="16">
-        <f t="shared" si="4"/>
+      <c r="F18" s="14">
+        <f>E5/E$9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F18" s="16">
-        <f t="shared" si="4"/>
+      <c r="G18" s="14">
+        <f>F5/F$9</f>
         <v>0</v>
       </c>
-      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="16">
-        <f t="shared" ref="B19:F19" si="5">B6/B$9</f>
+      <c r="B19" s="14">
+        <f t="shared" ref="B19:C19" si="5">B6/B$9</f>
         <v>3.3261339092872572E-2</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="14">
         <f t="shared" si="5"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="D19" s="16">
-        <f t="shared" si="5"/>
+      <c r="D19" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="14">
+        <f>D6/D$9</f>
         <v>0.5</v>
       </c>
-      <c r="E19" s="16">
-        <f t="shared" si="5"/>
+      <c r="F19" s="14">
+        <f>E6/E$9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F19" s="16">
-        <f t="shared" si="5"/>
+      <c r="G19" s="14">
+        <f>F6/F$9</f>
         <v>0</v>
       </c>
-      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="16">
-        <f t="shared" ref="B20:F20" si="6">B7/B$9</f>
+      <c r="B20" s="14">
+        <f t="shared" ref="B20:C20" si="6">B7/B$9</f>
         <v>4.3196544276457886E-3</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="14">
         <f t="shared" si="6"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="D20" s="16">
-        <f t="shared" si="6"/>
+      <c r="D20" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E20" s="14">
+        <f>D7/D$9</f>
         <v>0.1</v>
       </c>
-      <c r="E20" s="16">
-        <f t="shared" si="6"/>
+      <c r="F20" s="14">
+        <f>E7/E$9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F20" s="16">
-        <f t="shared" si="6"/>
+      <c r="G20" s="14">
+        <f>F7/F$9</f>
         <v>0</v>
       </c>
-      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="16">
-        <f t="shared" ref="B21:F21" si="7">B8/B$9</f>
+      <c r="B21" s="14">
+        <f t="shared" ref="B21:C21" si="7">B8/B$9</f>
         <v>0</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <f t="shared" si="7"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="D21" s="16">
-        <f t="shared" si="7"/>
+      <c r="D21" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="E21" s="14">
+        <f>D8/D$9</f>
         <v>0.1</v>
       </c>
-      <c r="E21" s="16">
-        <f t="shared" si="7"/>
+      <c r="F21" s="14">
+        <f>E8/E$9</f>
         <v>0</v>
       </c>
-      <c r="F21" s="16">
-        <f t="shared" si="7"/>
+      <c r="G21" s="14">
+        <f>F8/F$9</f>
         <v>1</v>
       </c>
-      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>0.04</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>150</v>
       </c>
-      <c r="D22" s="9">
+      <c r="E22" s="7">
         <v>300</v>
       </c>
-      <c r="E22" s="9">
+      <c r="F22" s="7">
         <v>100</v>
       </c>
-      <c r="F22" s="10">
+      <c r="G22" s="8">
         <v>30</v>
       </c>
-      <c r="G22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
